--- a/GL240_TestData_ValidateBudgetAmounts_21B.xlsx
+++ b/GL240_TestData_ValidateBudgetAmounts_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL TestData Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE883E-B917-4106-BC0E-9E447F1AD8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDEBB4-081B-4A69-9A3E-D3C89C2FE416}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -589,7 +587,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/GL240_TestData_ValidateBudgetAmounts_21B.xlsx
+++ b/GL240_TestData_ValidateBudgetAmounts_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL TestData Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDEBB4-081B-4A69-9A3E-D3C89C2FE416}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33785423-AE9F-40EF-8484-2F9B6E1FFEF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,44 +31,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{67DE6258-B6F0-460F-BCBA-468621F3E139}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unique Field. Provide non existing value with proper naming convention</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8A55BF1A-70DE-4CF6-9037-C6E731C55D8C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unique Field. Provide non existing value with proper naming convention</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>UserName</t>
   </si>
@@ -115,15 +79,9 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>DataAccessSet</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>Spare</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -184,7 +142,31 @@
     <t>000</t>
   </si>
   <si>
-    <t>AutomationTesting19</t>
+    <t>Unique Field. Provide non existing value with proper naming convention</t>
+  </si>
+  <si>
+    <t>AutomationTesting</t>
+  </si>
+  <si>
+    <t>SelectDataAccessSet</t>
+  </si>
+  <si>
+    <t>Future1</t>
+  </si>
+  <si>
+    <t>Future2</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>INEN</t>
+  </si>
+  <si>
+    <t>AutomationTesting_405</t>
+  </si>
+  <si>
+    <t>AutomationTesting_406</t>
   </si>
 </sst>
 </file>
@@ -208,16 +190,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -229,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,20 +242,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,196 +583,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.7265625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="21.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>5</v>
+      </c>
+      <c r="T2" s="5">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="U2" s="5">
+        <v>30</v>
+      </c>
+      <c r="V2" s="5">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="W2" s="5">
+        <v>30</v>
+      </c>
+      <c r="X2" s="5">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>120</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <v>120</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>19</v>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
